--- a/myapp/Kepuasan Kerja terhadap Turnover Intention.xlsx
+++ b/myapp/Kepuasan Kerja terhadap Turnover Intention.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WEBSITE\DUNIA ARTIKEL PSIKOLOGI.COM\WEBSITE DUNIA ARTIKEL PSIKOLOGI\pengaruh kepuasan kerja terhadap turnover intention\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F3DC4C-71E7-403A-B86E-6F351A0F3ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D901F5C-E42B-448E-A128-8ED997BA3575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
   <si>
     <t>Judul Artikel</t>
   </si>
@@ -88,6 +88,87 @@
   </si>
   <si>
     <t>Negatif, Signifikan</t>
+  </si>
+  <si>
+    <t>Jumlah Sampel</t>
+  </si>
+  <si>
+    <t>Ada Nilai R-Squares?</t>
+  </si>
+  <si>
+    <t>Ada Nilai Q-Squares?</t>
+  </si>
+  <si>
+    <t>Ada Nilai F-Squares?</t>
+  </si>
+  <si>
+    <t>Ada Pengujian Goodness of Fit? SRMR, NFI, GoF, dst</t>
+  </si>
+  <si>
+    <t>Ada Validitas Diskriminan HTMT?</t>
+  </si>
+  <si>
+    <t>Ada Validitas Diskriminan Cross Loading?</t>
+  </si>
+  <si>
+    <t>Ada Validitas Diskriminan Fornel Larcker?</t>
+  </si>
+  <si>
+    <t>Variabel yang Menuju ke Turnover Intention</t>
+  </si>
+  <si>
+    <t>Jumlah Variabel yang Menuju ke Turnover Intention</t>
+  </si>
+  <si>
+    <t>Nilai R-Squares Turnover Intention</t>
+  </si>
+  <si>
+    <t>0.504</t>
+  </si>
+  <si>
+    <t>Beban Kerja, Motivasi Kerja, Kepuasan Kerja</t>
+  </si>
+  <si>
+    <t>PENGARUH KEPUASAN KERJA DAN RELATIONSHIP MANAGEMENT TERHADAP TURNOVER INTENTION MELALUI KETERLIBATAN KERJA</t>
+  </si>
+  <si>
+    <t>Anggoro Jati Kuncoro, Kusuma Chandra Kirana, Syamsul Hadi</t>
+  </si>
+  <si>
+    <t>https://idm.or.id/JSER/index.php/JSER/article/view/955</t>
+  </si>
+  <si>
+    <t>Journal of Social and Economics Research</t>
+  </si>
+  <si>
+    <t>Ada, Keterlibatan Kerja</t>
+  </si>
+  <si>
+    <t>Peran Moderasi Kompensasi pada Pengaruh Kepuasan Kerja terhadap Turnover Intention Karyawan di Body Factory Bali</t>
+  </si>
+  <si>
+    <t>Kadek Dwi Wardana, Rahutama Atidira</t>
+  </si>
+  <si>
+    <t>https://ejournal.undiksha.ac.id/index.php/BISMA-JM/article/view/99677</t>
+  </si>
+  <si>
+    <t>Bisma: Jurnal Manajemen</t>
+  </si>
+  <si>
+    <t>Ada, Kompensasi</t>
+  </si>
+  <si>
+    <t>0.462</t>
+  </si>
+  <si>
+    <t>Kepuasan Kerja, Relationship Management, Keterlibatan Kerja</t>
+  </si>
+  <si>
+    <t>Kepuasan Kerja</t>
+  </si>
+  <si>
+    <t>0.539</t>
   </si>
 </sst>
 </file>
@@ -132,7 +213,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -141,6 +222,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -424,17 +508,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="69.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="157.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="77" style="1" customWidth="1"/>
-    <col min="3" max="3" width="77.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="93" style="1" customWidth="1"/>
     <col min="4" max="4" width="76" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="29.5703125" style="1" customWidth="1"/>
@@ -443,11 +527,21 @@
     <col min="9" max="9" width="43.5703125" style="1" customWidth="1"/>
     <col min="10" max="10" width="39.28515625" style="1" customWidth="1"/>
     <col min="11" max="11" width="28" style="1" customWidth="1"/>
-    <col min="12" max="12" width="37.28515625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.7109375" style="1"/>
+    <col min="12" max="13" width="37.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="28.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="37.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="38" style="1" customWidth="1"/>
+    <col min="17" max="17" width="71.5703125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="44.42578125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="50.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="54.5703125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="65.85546875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="56.5703125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="47.85546875" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,8 +578,41 @@
       <c r="L1" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -521,11 +648,188 @@
       </c>
       <c r="L2" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="M2" s="1">
+        <v>68</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" s="1">
+        <v>3</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2025</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="1">
+        <v>202</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V3" s="1">
+        <v>3</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2025</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1">
+        <v>5</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="1">
+        <v>87</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V4" s="1">
+        <v>1</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{7D24519B-B82B-4215-9DBD-AD343EF2A485}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{ED815FD9-A590-479B-ADD2-CB13EDBA3C6D}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{58330734-6E50-4945-8F0E-458E8E9AB006}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
